--- a/trade_list_example.xlsx
+++ b/trade_list_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeDepot\TradingKits\TopTrader_I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EED082-7F5C-4AB7-BD9E-FDC0EFCD2591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3ED16B-AB3F-4835-9F90-5C25B498B2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32A32097-8674-4D24-BB53-F27C0374606A}"/>
+    <workbookView xWindow="7515" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{32A32097-8674-4D24-BB53-F27C0374606A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>商品代號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目標張數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,38 +409,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500E9C53-92B3-42F3-BFE5-00FD20EA2646}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>2881</v>
-      </c>
-      <c r="B1">
-        <v>5</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2303</v>
+        <v>2881</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>46.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2303</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1101</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
